--- a/biology/Zoologie/Héliange_de_Clarisse/Héliange_de_Clarisse.xlsx
+++ b/biology/Zoologie/Héliange_de_Clarisse/Héliange_de_Clarisse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9liange_de_Clarisse</t>
+          <t>Héliange_de_Clarisse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliangelus amethysticollis
 L'Héliange de Clarisse, Héliange clarisse ou Héliange à gorge améthyste  (Heliangelus amethysticollis) est une espèce d'oiseaux-mouches (famille des Trochilidae) dont l'aire de répartition inclut la Bolivie, la Colombie, l'Équateur, le Pérou et le Venezuela.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9liange_de_Clarisse</t>
+          <t>Héliange_de_Clarisse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce habite les forêts tropicales et subtropicales humides de montagne. On la trouve aussi sur les sites d'anciennes forêts fortement dégradées.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9liange_de_Clarisse</t>
+          <t>Héliange_de_Clarisse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La taxinomie de cette espèce est incertaine. Heliangelus amethysticollis et Heliangelus spencei (Bourcier, 1847) (Héliange de Mérida, espèce à part entière chez Sibley &amp; Monroe, 1990, 1993) ont été regroupés dans H. amethysticollis à la suite du South American Classification Committee of the American Ornithologists’ Union de 2005.
 La sous-espèce Heliangelus amethysticollis clarisse est parfois aussi considérée comme une espèce à part entière.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%A9liange_de_Clarisse</t>
+          <t>Héliange_de_Clarisse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international, cette espèce est constituée des sous-espèces suivantes (ordre phylogénique) :
 Heliangelus amethysticollis violiceps  W. H. Phelps &amp; W. H. Phelps Jr, 1953
